--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Grem1-Kdr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Grem1-Kdr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,25 +79,25 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Grem1</t>
+  </si>
+  <si>
+    <t>Kdr</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Grem1</t>
-  </si>
-  <si>
-    <t>Kdr</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,16 +543,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.03682233333333334</v>
+        <v>0.03682233333333333</v>
       </c>
       <c r="H2">
         <v>0.110467</v>
       </c>
       <c r="I2">
-        <v>0.7715900201162271</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.771590020116227</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>143.0191385</v>
+        <v>127.8499795</v>
       </c>
       <c r="N2">
-        <v>286.038277</v>
+        <v>255.699959</v>
       </c>
       <c r="O2">
-        <v>0.5586909079605606</v>
+        <v>0.9566969901290183</v>
       </c>
       <c r="P2">
-        <v>0.4580112546679992</v>
+        <v>0.9375332254660301</v>
       </c>
       <c r="Q2">
-        <v>5.266298390893168</v>
+        <v>4.707734561808833</v>
       </c>
       <c r="R2">
-        <v>31.597790345359</v>
+        <v>28.246407370853</v>
       </c>
       <c r="S2">
-        <v>0.4310803289120422</v>
+        <v>0.9566969901290183</v>
       </c>
       <c r="T2">
-        <v>0.3533969132027399</v>
+        <v>0.9375332254660301</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -605,16 +605,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.03682233333333334</v>
+        <v>0.03682233333333333</v>
       </c>
       <c r="H3">
         <v>0.110467</v>
       </c>
       <c r="I3">
-        <v>0.7715900201162271</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.771590020116227</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,10 +629,10 @@
         <v>0.115296</v>
       </c>
       <c r="O3">
-        <v>0.0001501310188268283</v>
+        <v>0.0002875853314050663</v>
       </c>
       <c r="P3">
-        <v>0.000184614682244788</v>
+        <v>0.0004227369890322564</v>
       </c>
       <c r="Q3">
         <v>0.001415155914666667</v>
@@ -641,10 +641,10 @@
         <v>0.012736403232</v>
       </c>
       <c r="S3">
-        <v>0.0001158395958366621</v>
+        <v>0.0002875853314050663</v>
       </c>
       <c r="T3">
-        <v>0.0001424468463870068</v>
+        <v>0.0004227369890322564</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.03682233333333334</v>
+        <v>0.03682233333333333</v>
       </c>
       <c r="H4">
         <v>0.110467</v>
       </c>
       <c r="I4">
-        <v>0.7715900201162271</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.771590020116227</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.167042333333333</v>
+        <v>1.934682666666667</v>
       </c>
       <c r="N4">
-        <v>9.501127</v>
+        <v>5.804048</v>
       </c>
       <c r="O4">
-        <v>0.01237175510436691</v>
+        <v>0.0144771637140136</v>
       </c>
       <c r="P4">
-        <v>0.015213429278313</v>
+        <v>0.02128075367505108</v>
       </c>
       <c r="Q4">
-        <v>0.1166178884787778</v>
+        <v>0.07123953004622222</v>
       </c>
       <c r="R4">
-        <v>1.049560996309</v>
+        <v>0.6411557704159999</v>
       </c>
       <c r="S4">
-        <v>0.009545922769851497</v>
+        <v>0.0144771637140136</v>
       </c>
       <c r="T4">
-        <v>0.01173853020289032</v>
+        <v>0.02128075367505108</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,16 +729,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.03682233333333334</v>
+        <v>0.03682233333333333</v>
       </c>
       <c r="H5">
         <v>0.110467</v>
       </c>
       <c r="I5">
-        <v>0.7715900201162271</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.771590020116227</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.427696</v>
+        <v>0.3236365</v>
       </c>
       <c r="N5">
-        <v>0.855392</v>
+        <v>0.647273</v>
       </c>
       <c r="O5">
-        <v>0.001670754481373834</v>
+        <v>0.002421760775064419</v>
       </c>
       <c r="P5">
-        <v>0.001369673902604892</v>
+        <v>0.002373250061596896</v>
       </c>
       <c r="Q5">
-        <v>0.01574876467733334</v>
+        <v>0.01191705108183333</v>
       </c>
       <c r="R5">
-        <v>0.09449258806400002</v>
+        <v>0.07150230649099999</v>
       </c>
       <c r="S5">
-        <v>0.001289137483892513</v>
+        <v>0.002421760775064419</v>
       </c>
       <c r="T5">
-        <v>0.00105682671406358</v>
+        <v>0.002373250061596896</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -791,16 +791,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.03682233333333334</v>
+        <v>0.03682233333333333</v>
       </c>
       <c r="H6">
         <v>0.110467</v>
       </c>
       <c r="I6">
-        <v>0.7715900201162271</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.771590020116227</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>104.2068533333333</v>
+        <v>0.6086373333333334</v>
       </c>
       <c r="N6">
-        <v>312.62056</v>
+        <v>1.825912</v>
       </c>
       <c r="O6">
-        <v>0.4070743406450668</v>
+        <v>0.004554412188076668</v>
       </c>
       <c r="P6">
-        <v>0.5005754349464654</v>
+        <v>0.006694772941974269</v>
       </c>
       <c r="Q6">
-        <v>3.837139489057779</v>
+        <v>0.02241144676711111</v>
       </c>
       <c r="R6">
-        <v>34.53425540152001</v>
+        <v>0.201703020904</v>
       </c>
       <c r="S6">
-        <v>0.314094498687127</v>
+        <v>0.004554412188076668</v>
       </c>
       <c r="T6">
-        <v>0.3862390099200323</v>
+        <v>0.006694772941974269</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -853,16 +853,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.03682233333333334</v>
+        <v>0.03682233333333333</v>
       </c>
       <c r="H7">
         <v>0.110467</v>
       </c>
       <c r="I7">
-        <v>0.7715900201162271</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.771590020116227</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,400 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.130574666666667</v>
+        <v>2.881489666666667</v>
       </c>
       <c r="N7">
-        <v>15.391724</v>
+        <v>8.644468999999999</v>
       </c>
       <c r="O7">
-        <v>0.0200421107898049</v>
+        <v>0.02156208786242213</v>
       </c>
       <c r="P7">
-        <v>0.02464559252237265</v>
+        <v>0.03169526086631522</v>
       </c>
       <c r="Q7">
-        <v>0.1889197305675556</v>
+        <v>0.1061031730025555</v>
       </c>
       <c r="R7">
-        <v>1.700277575108</v>
+        <v>0.9549285570229998</v>
       </c>
       <c r="S7">
-        <v>0.01546429266747722</v>
+        <v>0.02156208786242213</v>
       </c>
       <c r="T7">
-        <v>0.01901629323011385</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.01090033333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.032701</v>
-      </c>
-      <c r="I8">
-        <v>0.2284099798837729</v>
-      </c>
-      <c r="J8">
-        <v>0.2284099798837729</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>143.0191385</v>
-      </c>
-      <c r="N8">
-        <v>286.038277</v>
-      </c>
-      <c r="O8">
-        <v>0.5586909079605606</v>
-      </c>
-      <c r="P8">
-        <v>0.4580112546679992</v>
-      </c>
-      <c r="Q8">
-        <v>1.558956282696166</v>
-      </c>
-      <c r="R8">
-        <v>9.353737696176999</v>
-      </c>
-      <c r="S8">
-        <v>0.1276105790485185</v>
-      </c>
-      <c r="T8">
-        <v>0.1046143414652593</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.01090033333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.032701</v>
-      </c>
-      <c r="I9">
-        <v>0.2284099798837729</v>
-      </c>
-      <c r="J9">
-        <v>0.2284099798837729</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.038432</v>
-      </c>
-      <c r="N9">
-        <v>0.115296</v>
-      </c>
-      <c r="O9">
-        <v>0.0001501310188268283</v>
-      </c>
-      <c r="P9">
-        <v>0.000184614682244788</v>
-      </c>
-      <c r="Q9">
-        <v>0.0004189216106666666</v>
-      </c>
-      <c r="R9">
-        <v>0.003770294496</v>
-      </c>
-      <c r="S9">
-        <v>3.429142299016619E-05</v>
-      </c>
-      <c r="T9">
-        <v>4.216783585778115E-05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.01090033333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.032701</v>
-      </c>
-      <c r="I10">
-        <v>0.2284099798837729</v>
-      </c>
-      <c r="J10">
-        <v>0.2284099798837729</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>3.167042333333333</v>
-      </c>
-      <c r="N10">
-        <v>9.501127</v>
-      </c>
-      <c r="O10">
-        <v>0.01237175510436691</v>
-      </c>
-      <c r="P10">
-        <v>0.015213429278313</v>
-      </c>
-      <c r="Q10">
-        <v>0.03452181711411111</v>
-      </c>
-      <c r="R10">
-        <v>0.310696354027</v>
-      </c>
-      <c r="S10">
-        <v>0.00282583233451541</v>
-      </c>
-      <c r="T10">
-        <v>0.003474899075422674</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.01090033333333333</v>
-      </c>
-      <c r="H11">
-        <v>0.032701</v>
-      </c>
-      <c r="I11">
-        <v>0.2284099798837729</v>
-      </c>
-      <c r="J11">
-        <v>0.2284099798837729</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.427696</v>
-      </c>
-      <c r="N11">
-        <v>0.855392</v>
-      </c>
-      <c r="O11">
-        <v>0.001670754481373834</v>
-      </c>
-      <c r="P11">
-        <v>0.001369673902604892</v>
-      </c>
-      <c r="Q11">
-        <v>0.004662028965333334</v>
-      </c>
-      <c r="R11">
-        <v>0.027972173792</v>
-      </c>
-      <c r="S11">
-        <v>0.0003816169974813208</v>
-      </c>
-      <c r="T11">
-        <v>0.0003128471885413122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.01090033333333333</v>
-      </c>
-      <c r="H12">
-        <v>0.032701</v>
-      </c>
-      <c r="I12">
-        <v>0.2284099798837729</v>
-      </c>
-      <c r="J12">
-        <v>0.2284099798837729</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>104.2068533333333</v>
-      </c>
-      <c r="N12">
-        <v>312.62056</v>
-      </c>
-      <c r="O12">
-        <v>0.4070743406450668</v>
-      </c>
-      <c r="P12">
-        <v>0.5005754349464654</v>
-      </c>
-      <c r="Q12">
-        <v>1.135889436951111</v>
-      </c>
-      <c r="R12">
-        <v>10.22300493256</v>
-      </c>
-      <c r="S12">
-        <v>0.09297984195793983</v>
-      </c>
-      <c r="T12">
-        <v>0.114336425026433</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.01090033333333333</v>
-      </c>
-      <c r="H13">
-        <v>0.032701</v>
-      </c>
-      <c r="I13">
-        <v>0.2284099798837729</v>
-      </c>
-      <c r="J13">
-        <v>0.2284099798837729</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>5.130574666666667</v>
-      </c>
-      <c r="N13">
-        <v>15.391724</v>
-      </c>
-      <c r="O13">
-        <v>0.0200421107898049</v>
-      </c>
-      <c r="P13">
-        <v>0.02464559252237265</v>
-      </c>
-      <c r="Q13">
-        <v>0.05592497405822222</v>
-      </c>
-      <c r="R13">
-        <v>0.503324766524</v>
-      </c>
-      <c r="S13">
-        <v>0.004577818122327685</v>
-      </c>
-      <c r="T13">
-        <v>0.0056292992922588</v>
+        <v>0.03169526086631522</v>
       </c>
     </row>
   </sheetData>
